--- a/documents/api_routes.xlsx
+++ b/documents/api_routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO</t>
   </si>
   <si>
     <t xml:space="preserve">/users</t>
@@ -63,31 +69,22 @@
     <t xml:space="preserve">Create user</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO</t>
+    <t xml:space="preserve">/users/:userId</t>
   </si>
   <si>
     <t xml:space="preserve">GET</t>
   </si>
   <si>
+    <t xml:space="preserve">User in json format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get user info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current user in json format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get user info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"User successfully deleted"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT</t>
   </si>
   <si>
     <t xml:space="preserve">username
@@ -100,6 +97,15 @@
     <t xml:space="preserve">Update user</t>
   </si>
   <si>
+    <t xml:space="preserve">DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"User successfully deleted"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete user</t>
+  </si>
+  <si>
     <t xml:space="preserve">/users/subscriptions</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Get all the liked pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitrine</t>
   </si>
   <si>
     <t xml:space="preserve">/vitrines</t>
@@ -185,6 +194,9 @@
     <t xml:space="preserve">Subscribe to a vitrine</t>
   </si>
   <si>
+    <t xml:space="preserve">Picture</t>
+  </si>
+  <si>
     <t xml:space="preserve">/pictures</t>
   </si>
   <si>
@@ -228,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">Like a picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auth</t>
   </si>
   <si>
     <t xml:space="preserve">/login</t>
@@ -256,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,6 +302,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -361,20 +384,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
@@ -421,7 +430,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,22 +439,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,39 +483,31 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,13 +528,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.42"/>
@@ -541,7 +548,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,586 +571,636 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="4" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="17" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="16" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="16" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>9</v>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="C19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="C23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="G23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="15" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="G24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="15" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
+      <c r="C27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="F27" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16" t="s">
+      <c r="C29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="C32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="G32" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="15" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="15" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="20" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="20" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>72</v>
       </c>
+      <c r="C37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
+  <mergeCells count="11">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A36:G36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/documents/api_routes.xlsx
+++ b/documents/api_routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vitrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO</t>
   </si>
   <si>
     <t xml:space="preserve">/vitrines</t>
@@ -157,6 +154,9 @@
     <t xml:space="preserve">Create new vitrine</t>
   </si>
   <si>
+    <t xml:space="preserve">TODO</t>
+  </si>
+  <si>
     <t xml:space="preserve">/vitrines/:latitude/:longitude</t>
   </si>
   <si>
@@ -164,6 +164,16 @@
   </si>
   <si>
     <t xml:space="preserve">Get vitrines close to a position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of vitrines containing the 
+Position wihthin their radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get vitrines you can post to</t>
   </si>
   <si>
     <t xml:space="preserve">/vitrines/:vitrineId</t>
@@ -212,7 +222,10 @@
     <t xml:space="preserve">/pictures</t>
   </si>
   <si>
-    <t xml:space="preserve">vitrineId</t>
+    <t xml:space="preserve">VitrineId
+Latitude
+Longitude
+Multipart : File</t>
   </si>
   <si>
     <t xml:space="preserve">Created picture in json</t>
@@ -323,7 +336,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +353,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE181E"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95C5F9"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -391,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,6 +449,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -437,7 +470,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -471,7 +504,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF95C5F9"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -501,12 +534,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -748,11 +781,11 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
@@ -765,15 +798,15 @@
         <v>29</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -782,18 +815,18 @@
         <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="4" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>43</v>
@@ -812,52 +845,50 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+    <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
         <v>50</v>
       </c>
@@ -865,205 +896,207 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>37</v>
+    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="G25" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="C31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>71</v>
@@ -1084,87 +1117,108 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="F35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="4" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>81</v>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1178,8 +1232,8 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A37:G37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/documents/api_routes.xlsx
+++ b/documents/api_routes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="95">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
@@ -109,7 +109,22 @@
     <t xml:space="preserve">Delete user</t>
   </si>
   <si>
-    <t xml:space="preserve">/users/subscriptions</t>
+    <t xml:space="preserve">MAYBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/users/:userId/vitrines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of vitrines with user as author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/users/:userId/pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of pictures with user as author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/users/:userId/subscriptions</t>
   </si>
   <si>
     <t xml:space="preserve">list of vitrines in json</t>
@@ -121,7 +136,7 @@
     <t xml:space="preserve">Necéssaire ?</t>
   </si>
   <si>
-    <t xml:space="preserve">/users/likes</t>
+    <t xml:space="preserve">/users/:userId/likes</t>
   </si>
   <si>
     <t xml:space="preserve">list of pictures in json</t>
@@ -131,6 +146,18 @@
   </si>
   <si>
     <t xml:space="preserve">/users/:uID fait la meme ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/users/:userId/news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">news feed in json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the new / popular pictures related to the users content</t>
   </si>
   <si>
     <t xml:space="preserve">Vitrine</t>
@@ -154,19 +181,53 @@
     <t xml:space="preserve">Create new vitrine</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO</t>
+    <t xml:space="preserve">/vitrines/:vitrineId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitrine in json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get a specific vitrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name
+Radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated vitrine in json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update a vitrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Vitrine succcessfully deleted”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete a vitrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/vitrines/:vitrineId/subscribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subscriberCount in json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get  the number of subscribers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 or 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscribe to a vitrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/vitrines/search/:Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of vitrines corresponding to the search</t>
   </si>
   <si>
     <t xml:space="preserve">/vitrines/:latitude/:longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list of the 50 closest vitrines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get vitrines close to a position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAYBE</t>
   </si>
   <si>
     <t xml:space="preserve">list of vitrines containing the 
@@ -176,44 +237,13 @@
     <t xml:space="preserve">Get vitrines you can post to</t>
   </si>
   <si>
-    <t xml:space="preserve">/vitrines/:vitrineId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitrine in json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get a specific vitrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name
-Radius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated vitrine in json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update a vitrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Vitrine succcessfully deleted”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a vitrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/vitrines/:vitrineId/subscribe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subscriberCount in json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get  the number of subscribers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 or 401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subscribe to a vitrine</t>
+    <t xml:space="preserve">/vitrines/:latitude/:longitude/near</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of the 50 closest vitrines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get vitrines close to a position</t>
   </si>
   <si>
     <t xml:space="preserve">Picture</t>
@@ -357,14 +387,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCE181E"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FF95C5F9"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF95C5F9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFCE181E"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -534,23 +564,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="50.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -704,64 +734,50 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
+      <c r="A11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -769,20 +785,33 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
+      <c r="A15" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>37</v>
@@ -791,66 +820,57 @@
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
@@ -858,81 +878,74 @@
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="4" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>55</v>
       </c>
@@ -941,47 +954,47 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -992,63 +1005,69 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>42</v>
+      <c r="G26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>42</v>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>16</v>
@@ -1056,171 +1075,259 @@
       <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="4" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>8</v>
+      <c r="F36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>8</v>
+      <c r="A39" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:G2"/>
@@ -1231,9 +1338,9 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A42:G42"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
